--- a/biology/Zoologie/Chitra_indica/Chitra_indica.xlsx
+++ b/biology/Zoologie/Chitra_indica/Chitra_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chitra indica est une espèce de tortues de la famille des Trionychidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chitra indica est une espèce de tortues de la famille des Trionychidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Bangladesh ;
 au Népal ;
 au Pakistan ;
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gray, 1831 "1830" : A synopsis of the species of Class Reptilia. The animal kingdom arranged in conformity with its organisation by the Baron Cuvier with additional descriptions of all the species hither named, and of many before noticed, V Whittaker, Treacher and Co., London, vol. 9, Supplement, p. 1-110 (texte intégral).</t>
         </is>
